--- a/simply-visualization.xlsx
+++ b/simply-visualization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="8400" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,18 +260,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -611,7 +605,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,16 +629,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -653,89 +647,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -744,9 +738,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -810,6 +801,1085 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Sales of product per months</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.409930555555556"/>
+          <c:y val="0.0277777777777778"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.159805555555556"/>
+          <c:y val="0.15162037037037"/>
+          <c:w val="0.785333333333333"/>
+          <c:h val="0.607268518518518"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product A Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>117522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78654</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>567782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>578041</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>602280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product B Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>153342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146647</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>148740</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>154047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>152004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>181796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>192452</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="0"/>
+        <c:axId val="886915486"/>
+        <c:axId val="68001664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="886915486"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68001664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68001664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886915486"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464185</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="355600" y="1749425"/>
+        <a:ext cx="4591050" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,8 +2085,8 @@
   </sheetPr>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3"/>
@@ -1087,91 +2157,91 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>117522</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>85275</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>83564</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>84110</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>78656</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>79352</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>78654</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>80014</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>67560</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>567782</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>578041</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>602280</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <f t="shared" ref="N3:N4" si="0">SUM(B3:M3)</f>
         <v>2502810</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>153342</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>150887</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>150222</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>146647</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>151786</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>148740</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>154047</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>151366</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>152004</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>181796</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>192452</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>201947</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <f t="shared" si="0"/>
         <v>1935236</v>
       </c>
@@ -1184,5 +2254,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>